--- a/Report_news.xlsx
+++ b/Report_news.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,27 +471,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Київ</t>
+          <t>Україна</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Росія зазнає збитків від невдалого переходу через річку, кажуть чиновники - The Associated Press - en Español°</t>
+          <t>Лідери Фінляндії закликають до членства в НАТО "невідкладно", - The Associated Press°</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>КИЇВ, Україна (AP) Російські війська зазнали значних втрат під час атаки України, яка зруйнувала понтонний міст, яким вони намагалися перетнути річку на сході, повідомили українські та британські чиновники… [+7035 символів]</t>
+          <t>Гельсінкі (AP) Лідери Фінляндії заявили в четвер, що вони виступають за швидке подання заявки на членство в НАТО, прокладаючи шлях для історичного розширення альянсу, що може завдати серйозного удару по Росії… [+5888 символів]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">КИЇВ, Україна (AP) — Російські війська зазнали значних втрат під час атаки України, яка зруйнувала понтонний міст, який вони використовували, щоб спробувати перетнути річку на сході, заявили українські та британські офіційні особи в ще одну ознаку боротьби Москви, щоб врятувати війну. … </t>
+          <t xml:space="preserve">Гельсінкі (AP) — Лідери Фінляндії заявили в четвер, що вони виступають за швидке подання заявки на членство в НАТО, прокладаючи шлях для історичного розширення альянсу, що може завдати серйозного удару Росії, оскільки її військова боротьба з війною в Україні. </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Олександр Сташевський</t>
+          <t>Палець Таннера</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,65 +501,573 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://apnews.com/article/russia-ukraine-kyiv-finland-a21a06ac0235bb89c9e8368e0ffca2c9</t>
+          <t>https://apnews.com/4ede1942b679dd15bd3021f9b194cbec</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://storage.googleapis.com/afs-prod/media/c0b2af02e525405c9ed0c61b9d6bef1d/2000.jpeg</t>
+          <t>https://storage.googleapis.com/afs-prod/media/e11ebb6eb0d84f97b9a7923498513db3/3000.jpeg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2022-05-13T17:41:07Z</t>
+          <t>2022-05-13T19:10:29Z</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Київ</t>
+          <t>Україна</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Україна віддає під суд російського солдата, звинуваченого у військових злочинах, - New Zealand Herald°</t>
+          <t>Постійні оновлення України: Ллойд Остін розмовляє з росіянином Сергієм Шойгу - USA TODAY°</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Фінляндія збирається приєднатися до НАТО, порушивши її давню політику нейтралітету. Відео / ABC
-У п’ятницю розпочався суд над російським солдатом, звинуваченим у вбивстві цивільного громадянина України, першими військовими злочинами… [+7681 символ]</t>
+          <t>Бій в Україні значною мірою перетворився на артилерійський бій, оскільки українські сили зірвали спроби Росії захопити територію у східній частині країни, сказав високопоставлений представник міністерства оборони США… [+8705 символів]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">У Києві відкрився перший з початку війни в Україні суд над російським солдатом. </t>
+          <t xml:space="preserve">За словами високопоставленого представника міністерства оборони США, бій в Україні значною мірою перетворився на артилерійську. Останні оновлення. </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Олександр Сташевський</t>
+          <t>Селіна Тебор, Райан В. Міллер і Том Ванден Брук, USA TODAY</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>New Zealand Herald</t>
+          <t>USA Today</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.nzherald.co.nz/world/russia-ukraine-war-ukraine-puts-russian-solider-accused-of-war-crime-on-trial/AXOSDKZTQADMUBL2XWM4UASCD4/</t>
+          <t>https://www.usatoday.com/story/news/politics/2022/05/13/ukraine-russia-invasion-live-updates/9752852002/</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nzherald.co.nz/resizer/MTRDIqYmVnm8QAH3eopC_4gPg_E=/1200x675/filters:quality(70)/cloudfront-ap-southeast-2.images.arcpublishing.com/nzme/EY36RGVAKXF4OFMUBOBA5IH7EE.jpg</t>
+          <t>https://www.gannett-cdn.com/presto/2022/05/13/USAT/0b118964-93eb-4f3d-b13a-8ad4df3136d6-AFP_32937N2.jpg?auto=webp&amp;crop=999,562,x0,y33&amp;format=pjpg&amp;width=1200</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2022-05-13T10:17:06Z</t>
+          <t>2022-05-13T18:22:30Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Володимир Путін «втратив контроль над наративом» в українській інформаційній війні, вважають західні чиновники - Evening Standard°</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Володимир Путін більше не проектує владу в інформаційній війні навколо України, оскільки дебати перейшли до того, чи контролюють його генерали та моральний дух його військ, заявили західні чиновники на… [+5666 символів]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Вважається, що армія пана Путіна втратила щонайменше 15 000 військових від початку вторгнення 24 лютого </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ніколас Сесіл</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Evening Standard</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.standard.co.uk/news/world/vladimir-putin-ukraine-information-war-officials-b999944.html</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://static.standard.co.uk/2022/05/13/19/AFP_329W29T.jpg?width=1200&amp;width=1200&amp;auto=webp&amp;quality=75</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2022-05-13T18:13:47Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Міністр оборони США розмовляє з російським колегою вперше після вторгнення Росії в Україну - CNN°</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Міністр оборони США Ллойд Остін провів розмову зі своїм російським колегою вперше після російського вторгнення в Україну, повідомляє Пентагон у п'ятницю.
+Дзвінок тривав приблизно годину… [+3774 символи]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Міністр оборони США Ллойд Остін провів розмову зі своїм російським колегою вперше після російського вторгнення в Україну, повідомляє Пентагон у п'ятницю. </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Орен Ліберман</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/2022/05/13/politics/austin-shoigu-call/index.html</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://media.cnn.com/api/v1/images/stellar/prod/220513114824-shoigu-austin-split.jpg?c=16x9&amp;q=w_800,c_fill</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2022-05-13T17:33:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Війна в Україні: Росія висилає 10 румунських дипломатів - Daily Post Nigeria°</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Росія у п'ятницю вислала 10 румунських дипломатів у відповідь на подібні вислання Бухарестом.
+МЗС Москви додав, що відхилив спроби Румунії звинуватити Росію у ймовірних військових злочинах… [+760 символів]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Росія у п'ятницю вислала 10 румунських дипломатів у відповідь на подібні вислання Бухарестом. Міністерство закордонних справ Москви додає, що відхиляє спроби Румунії звинуватити Росію у ймовірних військових злочинах в Україні. В окремій заяві міністерство також повідомляє… </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Дон Сайлас</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Daily Post Nigeria</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://dailypost.ng/2022/05/13/ukraine-war-russia-expels-10-romanian-diplomats/</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://dailypost.ng/wp-content/uploads/2021/01/World_Russia_Flag_of_the_Russian_Federation_035272_-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2022-05-13T14:31:13Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ренд Пол зупиняє допомогу Україні в розмірі 40 мільярдів доларів, відмовившись одностайної згоди в Сенаті - CBS News°</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Сенатор-республіканець від Кентуккі Ренд Пол кинув виклик лідерам обох партій у четвер і відклав до наступного тижня схвалення Сенатом додаткових 40 мільярдів доларів, щоб допомогти Україні та її союзникам протистояти російським… [+6954 символів]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Його заперечення проти негайного ухвалення законопроекту відкладеться до наступного тижня. </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CBS News</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/news/rand-paul-ukraine-aid-senate-unanimous-consent/</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://cbsnews3.cbsistatic.com/hub/i/r/2021/05/23/68688c7d-9259-47d8-9e35-2aa0b9aa1d09/thumbnail/1200x630/3bee2cdcb4254ba6adb70f84c19e2582/gettyimages-1232823528-1.jpg</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2022-05-13T13:11:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Україна відбила спробу Росії перетнути Донбас, підтверджує Велика Британія, - The Guardian°</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Українські війська відбили спробу Росії перетнути стратегічно важливу річку на захід від Сєвєродонецька на Донбасі, зазнавши при цьому великих втрат, повідомляє британська оборона в… [+4085 символів]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">За даними оборонної розвідки, Росія зазнала великих втрат під час за</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ден Саббаг</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>The Guardian</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://amp.theguardian.com/world/2022/may/13/ukraine-has-repelled-russias-attempt-to-cross-donbas-river-uk-confirms</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://i.guim.co.uk/img/media/660d8c5d0b4667c9e70a419a161b9ed7e8293f95/0_198_1600_960/master/1600.jpg?width=1200&amp;height=630&amp;quality=85&amp;auto=format&amp;fit=crop&amp;overlay-align=bottom%2Cleft&amp;overlay-width=100p&amp;overlay-base64=L2ltZy9zdGF0aWMvb3ZlcmxheXMvdGctZGVmYXVsdC5wbmc&amp;enable=upscale&amp;s=acc5c7175505848b2161efade9fce2cb</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2022-05-13T12:54:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>В Україні судитимуть російського солдата, звинуваченого у військових злочинах - Global News°</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Український суд провів у п’ятницю попереднє слухання у першому судовому процесі про військові злочини, пов’язаний із вторгненням Росії 24 лютого, після звинувачення полоненого російського солдата у вбивстві 62-річного… [+3603 символу]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Підсудний заявив українському суду, що він Вадим Шишимарин, який народився в Іркутській області Росії, і підтвердив, що він російський військовослужбовець на короткому попередньому засіданні. </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Reuters</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Global News</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://globalnews.ca/news/8832575/russia-solider-ukraine-war-crimes-trial/</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://globalnews.ca/wp-content/uploads/2022/05/Vadim-Shishimarin.jpg?quality=85&amp;strip=all&amp;w=720&amp;h=379&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2022-05-13T12:01:37Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Російський солдат, звинувачений у військових злочинах, вперше постане перед українським судом - ABC News°</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>В Україні почали судити російського солдата за вбивство беззбройного цивільного, що стало першим випадком, коли військовослужбовця РФ притягнули до відповідальності за військовий злочин протягом 11-тижневого періоду… [+4570 символів]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21-річного полоненого військовослужбовця звинувачують у тому, що у північно-східному селі Чупахівка під час першого тижня вторгнення Росії в Україну через відкрите вікно автомобіля вистрілив у голову 62-річному українцю. </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ABC News</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ABC News (AU)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.abc.net.au/news/2022-05-13/russian-soldier-faces-ukraine-court-on-war-crime-charges/101066418</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://live-production.wcms.abc-cdn.net.au/b3fbf23c939d6e4f0f186c5cf9f1015e?impolicy=wcms_crop_resize&amp;cropH=2813&amp;cropW=5000&amp;xPos=0&amp;yPos=445&amp;width=862&amp;height=485</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2022-05-13T11:28:38Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Перший російський військовий, якого в Україні судять за військові злочини, прибув до суду, - Guardian News°</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Український суд розпочав слухання першої справи про військові злочини внаслідок російського вторгнення після звинувачення полоненого солдата у вбивстві 62-річного... </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=rpjPLx9ZJjc</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/rpjPLx9ZJjc/maxresdefault.jpg</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2022-05-13T10:41:42Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Українські війська завадили росіянам біля річки, оскільки бій переходить на Донбас - The Star Online°</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ДЕРГАЧІ, Україна (Reuters) - Українські війська знищили частини російської бронетехніки, коли вона намагалася перетнути річку на Донбасі, показало відео українських військових у п'ятницю, повідомляє Mosco… [+6234 символу]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ДЕРГАЧІ, Україна (Reuters) – Українські війська знищили частини російської бронетанкової колони, коли вона намагалася переправитися через річку в рег</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Джонатан Лендей</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>The Star Online</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.thestar.com.my/news/world/2022/05/13/ukraine-says-it-damaged-russian-ship-seeks-evacuation-of-wounded-mariupol-fighters</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://apicms.thestar.com.my/uploads/images/2022/05/13/1583780.jpg</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2022-05-13T03:25:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Російсько-українська війна: хліб зараз надто дорогий для багатьох африканців, каже Акінвумі Адесіна - TheCable°</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Акінвумі Адесіна, президент Африканського банку розвитку (AfDB), каже, що багато африканців більше не можуть дозволити собі хліб через підвищення цін на продукти харчування, викликане російсько-українською війною.
+За його словами, пшениця… [+2301 символ]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Акінвумі Адезіна, президент Африканського банку розвитку (AfDB), каже, що багато африканців більше не можуть дозволити собі хліб через ціни на продукти... </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>автора Wasilat Azeez</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Thecable.ng</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.thecable.ng/russia-ukraine-war-bread-now-too-costly-for-many-africans-says-akinwumi-adesina</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://f5p3e9e4.stackpathcdn.com/wp-content/uploads/2021/10/Akinwumi-Adesina-AFDB6-e1652384108458.jpg</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2022-05-12T18:01:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Український командир створив обліковий запис у Twitter з проханням допомогти Ілону Маску втекти з Маріупольського металургійного заводу - Business Insider South Africa°</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Солдат в Україні звернувся за допомогою до мільярдера Ілона Маска, щоб допомогти людям втекти з Маріупольського металургійного заводу, обложеного російськими військами.
+Про це повідомив командир морської піхоти України Сергій Волина у Fac… [+1707 символів]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сергій Волина заявив, що с</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Кейт Даффі</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Business Insider South Africa</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.businessinsider.co.za/elon-musk-ukrainian-commander-escape-azovstal-mariupol-steel-plant-2022-5</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://cdn.24.co.za/files/Cms/General/d/3355/de5eb5097cab4383877a285339f6f843.jpg</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2022-05-12T11:55:42Z</t>
         </is>
       </c>
     </row>

--- a/Report_news.xlsx
+++ b/Report_news.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,42 +476,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Лідери Фінляндії закликають до членства в НАТО "невідкладно", - The Associated Press°</t>
+          <t>США ввели санкції проти російської еліти, орієнтуючись на яхти та літаки, - CNN°</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Гельсінкі (AP) Лідери Фінляндії заявили в четвер, що вони виступають за швидке подання заявки на членство в НАТО, прокладаючи шлях для історичного розширення альянсу, що може завдати серйозного удару по Росії… [+5888 символів]</t>
+          <t>Вашингтон (CNN) Білий дім у четвер оголосив про останній раунд санкцій через вторгнення Росії в Україну, спрямованих проти російських урядовців та еліти, близьких до президента Росії Вла… [+5756 символів]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гельсінкі (AP) — Лідери Фінляндії заявили в четвер, що вони виступають за швидке подання заявки на членство в НАТО, прокладаючи шлях для історичного розширення альянсу, що може завдати серйозного удару Росії, оскільки її військова боротьба з війною в Україні. </t>
+          <t xml:space="preserve">Білий дім у четвер оголосив про останній раунд санкцій через вторгнення Росії в Україну, спрямованих проти російських урядових чиновників та еліти, наближених до президента Росії Володимира Путіна, за допомогою низки нових фінансових і дипломатичних санкцій. </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Палець Таннера</t>
+          <t>Джеремі Даймонд, Бетсі Кляйн і Кейт Салліван, CNN</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Associated Press</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://apnews.com/4ede1942b679dd15bd3021f9b194cbec</t>
+          <t>https://www.cnn.com/2022/06/02/politics/us-sanctions-russia/index.html</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://storage.googleapis.com/afs-prod/media/e11ebb6eb0d84f97b9a7923498513db3/3000.jpeg</t>
+          <t>https://cdn.cnn.com/cnnnext/dam/assets/220220203733-biden-putin-split-0220-super-tease.jpg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2022-05-13T19:10:29Z</t>
+          <t>2022-06-02T15:36:00Z</t>
         </is>
       </c>
     </row>
@@ -523,42 +523,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Постійні оновлення України: Ллойд Остін розмовляє з росіянином Сергієм Шойгу - USA TODAY°</t>
+          <t>Росія попереджає Захід про наслідки озброєння, шкодить Україні, - The Associated Press°</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Бій в Україні значною мірою перетворився на артилерійський бій, оскільки українські сили зірвали спроби Росії захопити територію у східній частині країни, сказав високопоставлений представник міністерства оборони США… [+8705 символів]</t>
+          <t>КИЇВ, Україна (AP) Велика Британія пообіцяла в четвер відправити в Україну складні ракетні системи середньої дальності, приєднавшись до США та Німеччини в оснащенні враженої країни передовою зброєю… [+7501 символів]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">За словами високопоставленого представника міністерства оборони США, бій в Україні значною мірою перетворився на артилерійську. Останні оновлення. </t>
+          <t xml:space="preserve">КИЇВ, Україна (AP) — Велика Британія пообіцяла в четвер відправити в Україну складні ракетні системи середньої дальності, приєднавшись до США та Німеччини в оснащенні враженої країни передовою зброєю для збиття літаків і артилерії. </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Селіна Тебор, Райан В. Міллер і Том Ванден Брук, USA TODAY</t>
+          <t>Джон Лестер</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>USA Today</t>
+          <t>Associated Press</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.usatoday.com/story/news/politics/2022/05/13/ukraine-russia-invasion-live-updates/9752852002/</t>
+          <t>https://apnews.com/article/russia-ukraine-kyiv-government-and-politics-moscow-61ef29e1911bf2e38a19a6110e764e09</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.gannett-cdn.com/presto/2022/05/13/USAT/0b118964-93eb-4f3d-b13a-8ad4df3136d6-AFP_32937N2.jpg?auto=webp&amp;crop=999,562,x0,y33&amp;format=pjpg&amp;width=1200</t>
+          <t>https://storage.googleapis.com/afs-prod/media/75465ea5d85f401ca327bbbbfb1710e1/3000.jpeg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2022-05-13T18:22:30Z</t>
+          <t>2022-06-02T13:41:15Z</t>
         </is>
       </c>
     </row>
@@ -570,42 +570,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Володимир Путін «втратив контроль над наративом» в українській інформаційній війні, вважають західні чиновники - Evening Standard°</t>
+          <t>Володимир Зеленський подякував збірній України за "дві години щастя" після перемоги у відбірковому матчі ЧС - CNN°</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Володимир Путін більше не проектує владу в інформаційній війні навколо України, оскільки дебати перейшли до того, чи контролюють його генерали та моральний дух його військ, заявили західні чиновники на… [+5666 символів]</t>
+          <t>Глазго, Шотландія (CNN) Президент України Володимир Зеленський подякував національній команді за «дві години щастя» після того, як вона продемонструвала чарівну гру, обігравши Шотландію з рахунком 3-1 у своїй грі на чемпіонаті світу… [+2394 символи]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вважається, що армія пана Путіна втратила щонайменше 15 000 військових від початку вторгнення 24 лютого </t>
+          <t xml:space="preserve">Президент України Володимир Зеленський подякував національній збірній за «дві години щастя» після того, як у середу вона магічно обіграла Шотландію з рахунком 3:1 у півфіналі ЧС. </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ніколас Сесіл</t>
+          <t>Бен Черч, CNN</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Evening Standard</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.standard.co.uk/news/world/vladimir-putin-ukraine-information-war-officials-b999944.html</t>
+          <t>https://www.cnn.com/2022/06/02/football/volodymyr-zelensky-ukraine-world-cup-qualifier-spt-intl/index.html</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://static.standard.co.uk/2022/05/13/19/AFP_329W29T.jpg?width=1200&amp;width=1200&amp;auto=webp&amp;quality=75</t>
+          <t>https://cdn.cnn.com/cnnnext/dam/assets/220601155013-12-ukraine-scotland-match-060122-super-tease.jpg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2022-05-13T18:13:47Z</t>
+          <t>2022-06-02T11:08:00Z</t>
         </is>
       </c>
     </row>
@@ -617,43 +617,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Міністр оборони США розмовляє з російським колегою вперше після вторгнення Росії в Україну - CNN°</t>
+          <t>Російсько-українська війна: що ми знаємо на 99 день втор</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Міністр оборони США Ллойд Остін провів розмову зі своїм російським колегою вперше після російського вторгнення в Україну, повідомляє Пентагон у п'ятницю.
-Дзвінок тривав приблизно годину… [+3774 символи]</t>
+          <t>&lt;li&gt;Президент України Володимир Зеленський заявив, що наразі у війні загинули 243 дитини, а 200 000 дітей насильно вивезено до Росії, у тому числі діти з дитячих будинків, … [+4923 символу]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Міністр оборони США Ллойд Остін провів розмову зі своїм російським колегою вперше після російського вторгнення в Україну, повідомляє Пентагон у п'ятницю. </t>
+          <t xml:space="preserve">Росія дає відповідь на постачання США ракетних систем середньої дальності; Російські війська контролюють дві третини Сєвєродонецька; За добу Україна зазнає 100 жертв </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Орен Ліберман</t>
+          <t>Саманта Лок, Леоні Чао-Фонг</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>The Guardian</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2022/05/13/politics/austin-shoigu-call/index.html</t>
+          <t>https://amp.theguardian.com/world/2022/jun/02/russia-ukraine-war-what-we-know-on-day-99-of-the-invasion</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://media.cnn.com/api/v1/images/stellar/prod/220513114824-shoigu-austin-split.jpg?c=16x9&amp;q=w_800,c_fill</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2022-05-13T17:33:00Z</t>
+          <t>2022-06-02T07:29:00Z</t>
         </is>
       </c>
     </row>
@@ -665,43 +664,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Війна в Україні: Росія висилає 10 румунських дипломатів - Daily Post Nigeria°</t>
+          <t>Розділений Захід дає Путіну другий шанс на перемогу - The Telegraph°</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Росія у п'ятницю вислала 10 румунських дипломатів у відповідь на подібні вислання Бухарестом.
-МЗС Москви додав, що відхилив спроби Румунії звинуватити Росію у ймовірних військових злочинах… [+760 символів]</t>
+          <t>З погляду Кремля численні західні заяви про підтримку українців починають втрачати довіру. Ейфорія, що виникла на ранніх етапах конфлікту, коли воно стало… [+4660 символів]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Росія у п'ятницю вислала 10 румунських дипломатів у відповідь на подібні вислання Бухарестом. Міністерство закордонних справ Москви додає, що відхиляє спроби Румунії звинуватити Росію у ймовірних військових злочинах в Україні. В окремій заяві міністерство також повідомляє… </t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Дон Сайлас</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Це стосується не лише долі України. Йдеться про урок, який він пропонує державам-ізгоям у всьому світі </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Daily Post Nigeria</t>
+          <t>Telegraph.co.uk</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://dailypost.ng/2022/05/13/ukraine-war-russia-expels-10-romanian-diplomats/</t>
+          <t>https://www.telegraph.co.uk/news/2022/06/02/divided-west-giving-putin-second-chance-win/</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://dailypost.ng/wp-content/uploads/2021/01/World_Russia_Flag_of_the_Russian_Federation_035272_-scaled.jpg</t>
+          <t>https://www.telegraph.co.uk/content/dam/news/2022/06/01/TELEMMGLPICT000297498281_trans_NvBQzQNjv4BqpVlberWd9EgFPZtcLiMQf0Rf_Wk3V23H2268P_XkPxc.jpeg?impolicy=logo-overlay</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2022-05-13T14:31:13Z</t>
+          <t>2022-06-02T05:00:00Z</t>
         </is>
       </c>
     </row>
@@ -713,38 +707,43 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ренд Пол зупиняє допомогу Україні в розмірі 40 мільярдів доларів, відмовившись одностайної згоди в Сенаті - CBS News°</t>
+          <t>Як Росія могла спробувати обійти нафтові санкції Європейського Союзу - CNBC°</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Сенатор-республіканець від Кентуккі Ренд Пол кинув виклик лідерам обох партій у четвер і відклав до наступного тижня схвалення Сенатом додаткових 40 мільярдів доларів, щоб допомогти Україні та її союзникам протистояти російським… [+6954 символів]</t>
+          <t>Часткове ембарго ЄС поширюється на російську нафту, яка ввозиться до блоку морем, з винятком, передбаченим для імпорту, який постачається нафтопроводом після протидії Угорщини.
+Москва могла б відповісти ЄС… [+4817 символів]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Його заперечення проти негайного ухвалення законопроекту відкладеться до наступного тижня. </t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t xml:space="preserve">Лідери ЄС у понеділок погодилися заборонити 90% російської нафти до кінця року в рамках шостого пакету санкцій блоку щодо Росії після її вторгнення в Україну. </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Вей Чжентан</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CBS News</t>
+          <t>CNBC</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.cbsnews.com/news/rand-paul-ukraine-aid-senate-unanimous-consent/</t>
+          <t>https://www.cnbc.com/2022/06/02/how-russia-could-try-to-get-around-the-european-unions-oil-sanctions.html</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://cbsnews3.cbsistatic.com/hub/i/r/2021/05/23/68688c7d-9259-47d8-9e35-2aa0b9aa1d09/thumbnail/1200x630/3bee2cdcb4254ba6adb70f84c19e2582/gettyimages-1232823528-1.jpg</t>
+          <t>https://image.cnbcfm.com/api/v1/image/107068869-1653983978364-gettyimages-1240503118-AFP_329M3VU.jpeg?v=1654063781&amp;w=1920&amp;h=1080</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2022-05-13T13:11:00Z</t>
+          <t>2022-06-02T04:49:37Z</t>
         </is>
       </c>
     </row>
@@ -756,318 +755,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Україна відбила спробу Росії перетнути Донбас, підтверджує Велика Британія, - The Guardian°</t>
+          <t>Перемога України у футболі приносить радість військовим у війні з Росією - Зеленський - The Star Online°</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Українські війська відбили спробу Росії перетнути стратегічно важливу річку на захід від Сєвєродонецька на Донбасі, зазнавши при цьому великих втрат, повідомляє британська оборона в… [+4085 символів]</t>
+          <t>(Reuters) - Президент України Володимир Зеленський у середу привітав перемогу національної збірної з футболу над Шотландією у важливій грі плей-оф чемпіонату світу, сказавши, що перемога принесе радість солдатам… [+613 символів]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">За даними оборонної розвідки, Росія зазнала великих втрат під час за</t>
+          <t xml:space="preserve">(Reuters) – Президент України Володимир Зеленський у середу привітав перемогу національної футбольної збірної над Шотландією у життєво важливому матчі плей-офф чемпіонату світу з футболу, сказавши, що ця перемога принесе радість солдатам, які воюють проти Росії. </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ден Саббаг</t>
+          <t>Зірка онлайн</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>The Guardian</t>
+          <t>The Star Online</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://amp.theguardian.com/world/2022/may/13/ukraine-has-repelled-russias-attempt-to-cross-donbas-river-uk-confirms</t>
+          <t>https://www.thestar.com.my/news/world/2022/06/02/ukraine-soccer-win-brings-joy-to-military-in-war-with-russia---zelenskiy</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://i.guim.co.uk/img/media/660d8c5d0b4667c9e70a419a161b9ed7e8293f95/0_198_1600_960/master/1600.jpg?width=1200&amp;height=630&amp;quality=85&amp;auto=format&amp;fit=crop&amp;overlay-align=bottom%2Cleft&amp;overlay-width=100p&amp;overlay-base64=L2ltZy9zdGF0aWMvb3ZlcmxheXMvdGctZGVmYXVsdC5wbmc&amp;enable=upscale&amp;s=acc5c7175505848b2161efade9fce2cb</t>
+          <t>https://apicms.thestar.com.my/uploads/images/2022/06/02/1607674.jpg</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2022-05-13T12:54:00Z</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Україна</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>В Україні судитимуть російського солдата, звинуваченого у військових злочинах - Global News°</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Український суд провів у п’ятницю попереднє слухання у першому судовому процесі про військові злочини, пов’язаний із вторгненням Росії 24 лютого, після звинувачення полоненого російського солдата у вбивстві 62-річного… [+3603 символу]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Підсудний заявив українському суду, що він Вадим Шишимарин, який народився в Іркутській області Росії, і підтвердив, що він російський військовослужбовець на короткому попередньому засіданні. </t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Reuters</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Global News</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://globalnews.ca/news/8832575/russia-solider-ukraine-war-crimes-trial/</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>https://globalnews.ca/wp-content/uploads/2022/05/Vadim-Shishimarin.jpg?quality=85&amp;strip=all&amp;w=720&amp;h=379&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2022-05-13T12:01:37Z</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Україна</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Російський солдат, звинувачений у військових злочинах, вперше постане перед українським судом - ABC News°</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>В Україні почали судити російського солдата за вбивство беззбройного цивільного, що стало першим випадком, коли військовослужбовця РФ притягнули до відповідальності за військовий злочин протягом 11-тижневого періоду… [+4570 символів]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">21-річного полоненого військовослужбовця звинувачують у тому, що у північно-східному селі Чупахівка під час першого тижня вторгнення Росії в Україну через відкрите вікно автомобіля вистрілив у голову 62-річному українцю. </t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ABC News</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>ABC News (AU)</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.abc.net.au/news/2022-05-13/russian-soldier-faces-ukraine-court-on-war-crime-charges/101066418</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>https://live-production.wcms.abc-cdn.net.au/b3fbf23c939d6e4f0f186c5cf9f1015e?impolicy=wcms_crop_resize&amp;cropH=2813&amp;cropW=5000&amp;xPos=0&amp;yPos=445&amp;width=862&amp;height=485</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2022-05-13T11:28:38Z</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Україна</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Перший російський військовий, якого в Україні судять за військові злочини, прибув до суду, - Guardian News°</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Український суд розпочав слухання першої справи про військові злочини внаслідок російського вторгнення після звинувачення полоненого солдата у вбивстві 62-річного... </t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>YouTube</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=rpjPLx9ZJjc</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>https://i.ytimg.com/vi/rpjPLx9ZJjc/maxresdefault.jpg</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2022-05-13T10:41:42Z</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Україна</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Українські війська завадили росіянам біля річки, оскільки бій переходить на Донбас - The Star Online°</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ДЕРГАЧІ, Україна (Reuters) - Українські війська знищили частини російської бронетехніки, коли вона намагалася перетнути річку на Донбасі, показало відео українських військових у п'ятницю, повідомляє Mosco… [+6234 символу]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ДЕРГАЧІ, Україна (Reuters) – Українські війська знищили частини російської бронетанкової колони, коли вона намагалася переправитися через річку в рег</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Джонатан Лендей</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>The Star Online</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.thestar.com.my/news/world/2022/05/13/ukraine-says-it-damaged-russian-ship-seeks-evacuation-of-wounded-mariupol-fighters</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>https://apicms.thestar.com.my/uploads/images/2022/05/13/1583780.jpg</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2022-05-13T03:25:00Z</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Україна</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Російсько-українська війна: хліб зараз надто дорогий для багатьох африканців, каже Акінвумі Адесіна - TheCable°</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Акінвумі Адесіна, президент Африканського банку розвитку (AfDB), каже, що багато африканців більше не можуть дозволити собі хліб через підвищення цін на продукти харчування, викликане російсько-українською війною.
-За його словами, пшениця… [+2301 символ]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Акінвумі Адезіна, президент Африканського банку розвитку (AfDB), каже, що багато африканців більше не можуть дозволити собі хліб через ціни на продукти... </t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>автора Wasilat Azeez</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Thecable.ng</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://www.thecable.ng/russia-ukraine-war-bread-now-too-costly-for-many-africans-says-akinwumi-adesina</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>https://f5p3e9e4.stackpathcdn.com/wp-content/uploads/2021/10/Akinwumi-Adesina-AFDB6-e1652384108458.jpg</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2022-05-12T18:01:00Z</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Україна</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Український командир створив обліковий запис у Twitter з проханням допомогти Ілону Маску втекти з Маріупольського металургійного заводу - Business Insider South Africa°</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Солдат в Україні звернувся за допомогою до мільярдера Ілона Маска, щоб допомогти людям втекти з Маріупольського металургійного заводу, обложеного російськими військами.
-Про це повідомив командир морської піхоти України Сергій Волина у Fac… [+1707 символів]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Сергій Волина заявив, що с</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Кейт Даффі</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Business Insider South Africa</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://www.businessinsider.co.za/elon-musk-ukrainian-commander-escape-azovstal-mariupol-steel-plant-2022-5</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>https://cdn.24.co.za/files/Cms/General/d/3355/de5eb5097cab4383877a285339f6f843.jpg</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2022-05-12T11:55:42Z</t>
+          <t>2022-06-01T21:45:00Z</t>
         </is>
       </c>
     </row>

--- a/Report_news.xlsx
+++ b/Report_news.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,42 +476,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>США ввели санкції проти російської еліти, орієнтуючись на яхти та літаки, - CNN°</t>
+          <t>Австралія останні новини сьогодні, оновлення погоди в прямому ефірі та останні заголовки 8 червня 2022 року: родина Муругаппан летить додому в Білоелу; Очікується, що великі банки перенесуть іпотечний біль; Росія заявляє про ключові досягнення в Україні - 9News°</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Вашингтон (CNN) Білий дім у четвер оголосив про останній раунд санкцій через вторгнення Росії в Україну, спрямованих проти російських урядовців та еліти, близьких до президента Росії Вла… [+5756 символів]</t>
+          <t>Сенатор від національних держав Метт Канаван вважає, що попередній уряд припустився помилок у витратах, але каже, що важливо дивитися вперед.
+Сенатор від Квінсленду з’явився на «Сьогодні» і визнав Мор… [+615 символів]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Білий дім у четвер оголосив про останній раунд санкцій через вторгнення Росії в Україну, спрямованих проти російських урядових чиновників та еліти, наближених до президента Росії Володимира Путіна, за допомогою низки нових фінансових і дипломатичних санкцій. </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Джеремі Даймонд, Бетсі Кляйн і Кейт Салліван, CNN</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Новини за 8 червня 2022 року. Заголовки, останні останні новини, погода та оновлення в Австралії та по всьому світу... </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>9News</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2022/06/02/politics/us-sanctions-russia/index.html</t>
+          <t>https://www.9news.com.au/national/australia-breaking-news-today-live-russia-ukraine-updates-latest-headlines-june-8-2022/bbc3d6a7-5e6c-4162-ac62-83d43aad7d38</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://cdn.cnn.com/cnnnext/dam/assets/220220203733-biden-putin-split-0220-super-tease.jpg</t>
+          <t>https://imageresizer.static9.net.au/C-I_0XS-E0aoTFtoAs9UeXZi4N0=/1200x628/smart/https%3A%2F%2Fprod.static9.net.au%2Ffs%2F28dcf547-c8d8-4dd6-91e4-d63e2c139780</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2022-06-02T15:36:00Z</t>
+          <t>2022-06-07T22:27:41Z</t>
         </is>
       </c>
     </row>
@@ -523,42 +520,43 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Росія попереджає Захід про наслідки озброєння, шкодить Україні, - The Associated Press°</t>
+          <t>Україна відвоює частину Сєвєродонецька на тлі жорстоких вуличних боїв; Світовий банк знизив прогноз глобального зростання, - CNBC°</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>КИЇВ, Україна (AP) Велика Британія пообіцяла в четвер відправити в Україну складні ракетні системи середньої дальності, приєднавшись до США та Німеччини в оснащенні враженої країни передовою зброєю… [+7501 символів]</t>
+          <t>На Україну не можна тиснути з боку інших країн, щоб вона погодилася на погану мирну угоду з Росією, заявив прем’єр-міністр Великої Британії Борис Джонсон під час зустрічі зі своїм кабінетом.
+Джонсон "сказав, що дуже важливо, щоб ... [+915 символів]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">КИЇВ, Україна (AP) — Велика Британія пообіцяла в четвер відправити в Україну складні ракетні системи середньої дальності, приєднавшись до США та Німеччини в оснащенні враженої країни передовою зброєю для збиття літаків і артилерії. </t>
+          <t xml:space="preserve">Жорстокі вуличні бої тривають на сході України, зокрема в містах Сєвєродонецьк та Лисичанськ. </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Джон Лестер</t>
+          <t>Наташа Турак</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Associated Press</t>
+          <t>CNBC</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://apnews.com/article/russia-ukraine-kyiv-government-and-politics-moscow-61ef29e1911bf2e38a19a6110e764e09</t>
+          <t>https://www.cnbc.com/2022/06/07/russia-ukraine-live-updates.html</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://storage.googleapis.com/afs-prod/media/75465ea5d85f401ca327bbbbfb1710e1/3000.jpeg</t>
+          <t>https://image.cnbcfm.com/api/v1/image/107072038-1654603917179-gettyimages-1241155168-AFP_32C23TV.jpeg?v=1654604554&amp;w=1920&amp;h=1080</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2022-06-02T13:41:15Z</t>
+          <t>2022-06-07T21:49:00Z</t>
         </is>
       </c>
     </row>
@@ -570,42 +568,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Володимир Зеленський подякував збірній України за "дві години щастя" після перемоги у відбірковому матчі ЧС - CNN°</t>
+          <t>Сльози, сміх і багато обіймів, коли 170 українців прибувають до Нью-Брансвіка - CBC.ca°</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Глазго, Шотландія (CNN) Президент України Володимир Зеленський подякував національній команді за «дві години щастя» після того, як вона продемонструвала чарівну гру, обігравши Шотландію з рахунком 3-1 у своїй грі на чемпіонаті світу… [+2394 символи]</t>
+          <t>Хвилювання Наталії Гайдаш було відчутним у вівторок вранці.
+Це був день, коли 170 українців, включаючи двох членів її власної родини, мали прибути до Нью-Брансвіка, рятуючись від триваючих… [+5289 символів]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Президент України Володимир Зеленський подякував національній збірній за «дві години щастя» після того, як у середу вона магічно обіграла Шотландію з рахунком 3:1 у півфіналі ЧС. </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Бен Черч, CNN</t>
-        </is>
-      </c>
+          <t xml:space="preserve">У вівторок вдень у Монктоні приземлився рейс із 170 особами, які рятувалися від зруйнованої війною України. </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>CBC News</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2022/06/02/football/volodymyr-zelensky-ukraine-world-cup-qualifier-spt-intl/index.html</t>
+          <t>https://www.cbc.ca/news/canada/new-brunswick/new-brunswick-ukrainian-immigrants-1.6480065</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://cdn.cnn.com/cnnnext/dam/assets/220601155013-12-ukraine-scotland-match-060122-super-tease.jpg</t>
+          <t>https://i.cbc.ca/1.6480601.1654631032!/fileImage/httpImage/image.jpg_gen/derivatives/16x9_620/ukid.jpg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2022-06-02T11:08:00Z</t>
+          <t>2022-06-07T21:41:09Z</t>
         </is>
       </c>
     </row>
@@ -617,42 +612,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Російсько-українська війна: що ми знаємо на 99 день втор</t>
+          <t>Супутникові знімки показують пошкодження російської артилерії, 40-метровий кратер в Україні - NDTV°</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;li&gt;Президент України Володимир Зеленський заявив, що наразі у війні загинули 243 дитини, а 200 000 дітей насильно вивезено до Росії, у тому числі діти з дитячих будинків, … [+4923 символу]</t>
+          <t>Супутникові знімки, які показують руйнування будівель у Рубіжному (висока розді</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Росія дає відповідь на постачання США ракетних систем середньої дальності; Російські війська контролюють дві третини Сєвєродонецька; За добу Україна зазнає 100 жертв </t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Саманта Лок, Леоні Чао-Фонг</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Оскільки на східному Донбасі України триває запеклий бій, останні супутникові знімки показують масштаби руйнувань, спричинених безперервною та невпинною російською артилерією. </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>The Guardian</t>
+          <t>NDTV News</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://amp.theguardian.com/world/2022/jun/02/russia-ukraine-war-what-we-know-on-day-99-of-the-invasion</t>
+          <t>https://www.ndtv.com/world-news/satellite-images-show-russian-artillery-damage-40-metre-crater-in-ukraine-3047508</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>https://c.ndtvimg.com/2022-06/8f2bfd5g_b4maxar_625x300_08_June_22.jpg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2022-06-02T07:29:00Z</t>
+          <t>2022-06-07T20:44:10Z</t>
         </is>
       </c>
     </row>
@@ -664,38 +655,43 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Розділений Захід дає Путіну другий шанс на перемогу - The Telegraph°</t>
+          <t>Чи згодні ви з нашою командою Ірландії протистояти Україні? - The42°</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>З погляду Кремля численні західні заяви про підтримку українців починають втрачати довіру. Ейфорія, що виникла на ранніх етапах конфлікту, коли воно стало… [+4660 символів]</t>
+          <t>Каоімхін Келлехер: Оскільки Гевін Базуну виключено, Келлехер, здається, є явним другим вибором для Кенніса, незважаючи на чудовий сезон Марка Треверса з Борнмутом.
+Шейн Даффі: Не зробив багато поганого... [+4293 символи]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Це стосується не лише долі України. Йдеться про урок, який він пропонує державам-ізгоям у всьому світі </t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t xml:space="preserve">Стівен Кенні збирається внести деякі зміни після невтішної поразки у Вірменії. </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Пол Феннессі</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Telegraph.co.uk</t>
+          <t>The42</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.telegraph.co.uk/news/2022/06/02/divided-west-giving-putin-second-chance-win/</t>
+          <t>https://www.the42.ie/do-you-agree-with-our-ireland-team-to-face-ukraine-5784642-Jun2022/</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.telegraph.co.uk/content/dam/news/2022/06/01/TELEMMGLPICT000297498281_trans_NvBQzQNjv4BqpVlberWd9EgFPZtcLiMQf0Rf_Wk3V23H2268P_XkPxc.jpeg?impolicy=logo-overlay</t>
+          <t>https://img2.thejournal.ie/article/5784642/river/?height=400&amp;version=5784696</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2022-06-02T05:00:00Z</t>
+          <t>2022-06-07T20:28:00Z</t>
         </is>
       </c>
     </row>
@@ -707,43 +703,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Як Росія могла спробувати обійти нафтові санкції Європейського Союзу - CNBC°</t>
+          <t>Російське космічне аге</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Часткове ембарго ЄС поширюється на російську нафту, яка ввозиться до блоку морем, з винятком, передбаченим для імпорту, який постачається нафтопроводом після протидії Угорщини.
-Москва могла б відповісти ЄС… [+4817 символів]</t>
+          <t>Російське космічне агентство оголосило про намір в односторонньому порядку захопити контроль над німецьким телескопом, встановленим на російському космічному кораблі. Це жахлива, безвідповідальна ідея, оскільки навіть російські вчені… [+4216 символів]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лідери ЄС у понеділок погодилися заборонити 90% російської нафти до кінця року в рамках шостого пакету санкцій блоку щодо Росії після її вторгнення в Україну. </t>
+          <t xml:space="preserve">Телескоп eROSITA є частиною спільного російсько-німецького проекту зі створення карт Всесвіту, але Німеччина призупинила місію після вторгнення Росії в Україну. </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Вей Чжентан</t>
+          <t>Георгій Дворський</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CNBC</t>
+          <t>Gizmodo.com</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.cnbc.com/2022/06/02/how-russia-could-try-to-get-around-the-european-unions-oil-sanctions.html</t>
+          <t>https://gizmodo.com/russia-roscosmos-erosita-1849029588</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://image.cnbcfm.com/api/v1/image/107068869-1653983978364-gettyimages-1240503118-AFP_329M3VU.jpeg?v=1654063781&amp;w=1920&amp;h=1080</t>
+          <t>https://i.kinja-img.com/gawker-media/image/upload/c_fill,f_auto,fl_progressive,g_center,h_675,pg_1,q_80,w_1200/83ee3f0f039d6298d8a90baf08a8f98e.png</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2022-06-02T04:49:37Z</t>
+          <t>2022-06-07T20:05:00Z</t>
         </is>
       </c>
     </row>
@@ -755,42 +750,405 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Перемога України у футболі приносить радість військовим у війні з Росією - Зеленський - The Star Online°</t>
+          <t>Зеленський заявив, що воюватиме за всю територію в умовах запеклої битви на сході - Reuters.com°</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(Reuters) - Президент України Володимир Зеленський у середу привітав перемогу національної збірної з футболу над Шотландією у важливій грі плей-оф чемпіонату світу, сказавши, що перемога принесе радість солдатам… [+613 символів]</t>
+          <t>КИЇВ/ДРУЖКІВКА, Україна, 7 червня (Рейтер) - Україна боротиметься за відновлення всієї своєї території, окупованої російськими військами, заявив президент Володимир Зеленський у вівторок, поки його війська намагалися утримати… [+5956 символів]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">(Reuters) – Президент України Володимир Зеленський у середу привітав перемогу національної футбольної збірної над Шотландією у життєво важливому матчі плей-офф чемпіонату світу з футболу, сказавши, що ця перемога принесе радість солдатам, які воюють проти Росії. </t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Зірка онлайн</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Україна боротиметься за відновлення всієї своєї території, окупованої російськими військами, заявив у вівторок президент Володимир Зеленський, коли його війська намагалися утриматися у кровопролитних вуличних боях у місті Сєвєродонецьк. </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>The Star Online</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.thestar.com.my/news/world/2022/06/02/ukraine-soccer-win-brings-joy-to-military-in-war-with-russia---zelenskiy</t>
+          <t>https://www.reuters.com/business/aerospace-defense/fierce-street-fighting-ukraines-sievierodonetsk-pivotal-battle-donbas-2022-06-07/</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://apicms.thestar.com.my/uploads/images/2022/06/02/1607674.jpg</t>
+          <t>https://www.reuters.com/resizer/sXTJiaYl_-S10FTJk6s7dC2kWRc=/1200x628/smart/filters:quality(80)/cloudfront-us-east-2.images.arcpublishing.com/reuters/TDWTIBC7FZKIDHH7X3TFGCJIZA.jpg</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2022-06-01T21:45:00Z</t>
+          <t>2022-06-07T18:54:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Російсько-українська війна: США виграли справу щодо захоплення російської суперяхти на Фіджі, відпливають - New Zealand Herald°</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Капітан човна Емосі Давай дивиться на суперяхту Amadea, що пришвартована на пристані Квінс у Лаутоці, Фіджі, 13 квітня. 5 травня п'ятеро федеральних агентів США сіли на судно. Фото / APСполучені Штати виграли … [+4692 символи]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amadea стала мішенню спеціальної групи США, створеної для захоплення активів російських олігархів. </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Нік Перрі</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>New Zealand Herald</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.nzherald.co.nz/world/russia-ukraine-war-us-wins-case-to-seize-russian-superyacht-in-fiji-sails-away/VX3K6LUJZKVCCRKHZKJB3LX5FA/</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://www.nzherald.co.nz/resizer/FNSqkLL5Wu_i85kDlRHQi5Q-vNY=/1200x675/filters:quality(70)/cloudfront-ap-southeast-2.images.arcpublishing.com/nzme/S22XTQWUYM2EUU5K5JOON3H22Q.jpg</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2022-06-07T17:59:41Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Світовий банк прогнозує зростання світової економіки цього року на 2,9% — приблизно вдвічі більше, ніж у 2021 році - CBC News°</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Світовий банк різко погіршив свій прогноз щодо світової економіки, вказуючи на війну Росії проти України, перспективу широкого дефіциту продовольства та занепокоєння щодо потенційного повернення... [+3034 символу]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Світовий банк різко погіршив свої прогнози щодо світової економіки, вказуючи на війну Росії проти України, перспективу широкого дефіциту продовольства та занепокоєння з приводу потенційного повернення «стагфляції» — токсичної суміші високої інфляції та повільного… </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CBC News</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.cbc.ca/news/business/world-bank-economic-forecast-1.6480052</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://i.cbc.ca/1.6480069.1654611973!/fileImage/httpImage/image.jpg_gen/derivatives/16x9_620/david-malpass-world-bank.jpg</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2022-06-07T15:06:16Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Світовий банк попереджає, що багато країн прямують до рецесії - The Irish Times°</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Багатьом країнам буде важко уникнути рецесії в найближчі місяці, оскільки вторгнення Росії в Україну, блокування в Китаї та поточні проблеми з ланцюгом поставок порушують діяльність, торгівлю та розміщення… [+3621 символів]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">У Вашингтоні стверджують, що вторгнення Росії в Україну посилило збитки від пандемії та підвищило ризик стагфляції в стилі 1970-х років </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Еойн Берк-Кеннеді</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>The Irish Times</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.irishtimes.com/business/economy/2022/06/07/most-countries-headed-for-recession-world-bank-warns/</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://www.irishtimes.com/resizer/cD1_85Bf0v1MpHOVDFY3hBpSIWQ=/1200x630/filters:format(jpg):quality(70)/cloudfront-eu-central-1.images.arcpublishing.com/irishtimes/WQFAOLFQABGWTEGEKWZWASKZ4Y.jpg</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2022-06-07T14:46:29Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Останні новини російсько-української війни: прямі оновлення - The Washington Post°</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Понад 100 днів після початку війни українські та російські війська залишаються в запеклих боях за Сєвєродонецьк, найбільше місто Луганської області, де Київ все ще зберігає певний контроль. Українські військові… [+2886 символів]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Зеленський сказав, що Україна може повернути Сєвєродонецьк, але умови для бійців, які захищають ключове місто, погіршилися. </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Амай Ченг, Ендрю Чон, Рейчел Паннетт, Дженніфер Хассан, Адела Сулейман</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>The Washington Post</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.washingtonpost.com/world/2022/06/07/russia-ukraine-war-putin-news-live-updates/</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://www.washingtonpost.com/wp-apps/imrs.php?src=https://arc-anglerfish-washpost-prod-washpost.s3.amazonaws.com/public/LY4DDGXFZYI6ZJBCCG53SHNTBM.jpg&amp;w=1440</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2022-06-07T09:00:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Як вивезти з України 20 млн тонн зерна? - Опікун°</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>У висотних багатоповерхових складських приміщеннях на набережній Одеського чорноморського порту на українському узбережжі цокає годинник.
+Одна величезна металева конструкція містить чверть мільйона тонн… [+7619 символів]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Війна ставить дипломатичні та матеріально-технічні проблеми, оскільки заповнюються силоси п’ятого за величиною експортера пшениці в світі </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Джоанна Партрідж</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>The Guardian</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://amp.theguardian.com/world/2022/jun/07/how-do-you-get-20m-tonnes-of-grain-out-of-ukraine</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://i.guim.co.uk/img/media/dadd41e7e4224914e88f3639b9478cfa18692646/35_19_3430_2058/master/3430.jpg?width=1200&amp;height=630&amp;quality=85&amp;auto=format&amp;fit=crop&amp;overlay-align=bottom%2Cleft&amp;overlay-width=100p&amp;overlay-base64=L2ltZy9zdGF0aWMvb3ZlcmxheXMvdGctZGVmYXVsdC5wbmc&amp;enable=upscale&amp;s=cc6cf40dc1d57f3aa34e58edf3776afe</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2022-06-07T05:00:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>На війні в Україні загинув ще один російський генерал | Світ - The Times°</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ще один російський генерал був убитий в Україні під час останньої невдачі сил вторгнення.
+Під час бойових дій на Донбасі загинув генерал-майор Роман Кутузов. Генерал повів своїх солдатів у атаку… [+603 символи]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ще один російський генерал був убитий в Україні під час останньої невдачі сил вторгнення. Під час бойових дій на Донбасі загинув генерал-майор Роман Кутузов. “ </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Джуліан О'Шонессі</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>The Times</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.thetimes.co.uk/article/another-russian-general-dies-in-ukraine-war-w2353ds66</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://www.thetimes.co.uk/imageserver/image/%2Fmethode%2Ftimes%2Fprod%2Fweb%2Fbin%2F10a6478c-e579-11ec-9b02-3f136f233710.jpg?crop=1287%2C724%2C35%2C36&amp;resize=1200</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2022-06-06T16:00:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Українські та російські війська вулицю за вулицею б'ються за контроль над містом Сєвєродонецьк - The Globe and Mail°</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Члени загону іноземних добровольців, який воює в українській армії, займають позиції у Сєвєродонецьку, Україна, 2 червня. СЕРГІЙ НУЖНЕНКО/Reuters
+Вуличні бої між українськими та російськими… [+4470 символів]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Російські сили мали чисельну перевагу, але Україна мала «всі шанси» дати відсіч, заявив президент Володимир Зеленський після того, як регіональний чиновник припустив, що Київ втратив позиції </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Наталія Зінець, Павло Політюк</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>The Globe And Mail</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.theglobeandmail.com/world/article-uk-boosts-ukraine-support-with-high-tech-missile-system-2/</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://www.theglobeandmail.com/resizer/ZgyGOvgR4W6AJewxet4kylMzir8=/1200x822/filters:quality(80)/cloudfront-us-east-1.images.arcpublishing.com/tgam/IES6NDYXGBNDRGSPJRNQ2RQHXQ.JPG</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2022-06-06T11:50:49Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Україна</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Уельс 1:0 Україна | WCQ 22 Плей-оф | Astro SuperSport - Стадіон Astro°</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Зареєструйтеся на абсолютно новий досвід Astro сьогодні: https://shop.astro.com.my/sports-pack/details📢Отримайте 6 місяців The Athletic БЕЗКОШТОВНО!: https://rewards.astro.... </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=6I029mnyVy0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/6I029mnyVy0/maxresdefault.jpg</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2022-06-05T22:06:22Z</t>
         </is>
       </c>
     </row>

--- a/Report_news.xlsx
+++ b/Report_news.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,684 +471,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Україна</t>
+          <t>ЄС</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Австралія останні новини сьогодні, оновлення погоди в прямому ефірі та останні заголовки 8 червня 2022 року: родина Муругаппан летить додому в Білоелу; Очікується, що великі банки перенесуть іпотечний біль; Росія заявляє про ключові досягнення в Україні - 9News°</t>
+          <t>Велика Британія ризикує торговельною війною ЄС через опублікування протоколу Північної Ірландії - The Guardian°</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Сенатор від національних держав Метт Канаван вважає, що попередній уряд припустився помилок у витратах, але каже, що важливо дивитися вперед.
-Сенатор від Квінсленду з’явився на «Сьогодні» і визнав Мор… [+615 символів]</t>
+          <t>Британія "повністю серйозно" ставиться до законодавства Північної Ірландії, говорить Ліз Трасс на відео
+BrexitLiz Truss каже, що законопроект вирішить проблеми з торгівлею після Brexit, але юридичні експерти та деякі депутати-торі кажуть, що це перерва… [+4978 символів]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новини за 8 червня 2022 року. Заголовки, останні останні новини, погода та оновлення в Австралії та по всьому світу... </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t xml:space="preserve">Ліз Трасс каже, що законопроект вирішить проблеми з торгівлею після Brexit, але юридичні експерти та деякі депутати Торі стверджують, що цей крок порушує міжнародне право </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ровена Мейсон</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9News</t>
+          <t>The Guardian</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.9news.com.au/national/australia-breaking-news-today-live-russia-ukraine-updates-latest-headlines-june-8-2022/bbc3d6a7-5e6c-4162-ac62-83d43aad7d38</t>
+          <t>https://amp.theguardian.com/uk-news/2022/jun/13/uk-risks-brexit-eu-trade-war-as-northern-ireland-protocol-bill-is-published</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://imageresizer.static9.net.au/C-I_0XS-E0aoTFtoAs9UeXZi4N0=/1200x628/smart/https%3A%2F%2Fprod.static9.net.au%2Ffs%2F28dcf547-c8d8-4dd6-91e4-d63e2c139780</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2022-06-07T22:27:41Z</t>
+          <t>2022-06-13T17:51:00Z</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Україна</t>
+          <t>ЄС</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Україна відвоює частину Сєвєродонецька на тлі жорстоких вуличних боїв; Світовий банк знизив прогноз глобального зростання, - CNBC°</t>
+          <t>Велика Британія опублікувала законопроект, який відмінює більшу частину протоколу Північної Ірландії - The Irish Times°</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>На Україну не можна тиснути з боку інших країн, щоб вона погодилася на погану мирну угоду з Росією, заявив прем’єр-міністр Великої Британії Борис Джонсон під час зустрічі зі своїм кабінетом.
-Джонсон "сказав, що дуже важливо, щоб ... [+915 символів]</t>
+          <t>Британські міністри отримають повноваження майже повністю відмінити протокол Північної Ірландії відповідно до законодавства, внесеного у Вестмінстері в понеділок. Проте Європейська комісія сказала, що я… [+7704 символи]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Жорстокі вуличні бої тривають на сході України, зокрема в містах Сєвєродонецьк та Лисичанськ. </t>
+          <t xml:space="preserve">Європейська комісія заявила, що, ймовірно, відновить судовий позов проти Великобританії </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Наташа Турак</t>
+          <t>Деніс Стонтон, Пет Ліхі, Баррі Рош</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CNBC</t>
+          <t>The Irish Times</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.cnbc.com/2022/06/07/russia-ukraine-live-updates.html</t>
+          <t>https://www.irishtimes.com/politics/2022/06/13/uk-publishes-bill-to-override-much-of-northern-ireland-protocol/</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://image.cnbcfm.com/api/v1/image/107072038-1654603917179-gettyimages-1241155168-AFP_32C23TV.jpeg?v=1654604554&amp;w=1920&amp;h=1080</t>
+          <t>https://www.irishtimes.com/resizer/ZqwAYDU4qn_ujzIQHgLcwzoTqRY=/1200x630/filters:format(jpg):quality(70)/cloudfront-eu-central-1.images.arcpublishing.com/irishtimes/IYF4VKTB5TE2SBCUBXNLEOWHOE.jpg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2022-06-07T21:49:00Z</t>
+          <t>2022-06-13T17:21:10Z</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Україна</t>
+          <t>ЄС</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Сльози, сміх і багато обіймів, коли 170 українців прибувають до Нью-Брансвіка - CBC.ca°</t>
+          <t>S&amp;P 500 підтверджує, що ведмежий ринок переживає рецесію Рейтер - Investing.com°</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Хвилювання Наталії Гайдаш було відчутним у вівторок вранці.
-Це був день, коли 170 українців, включаючи двох членів її власної родини, мали прибути до Нью-Брансвіка, рятуючись від триваючих… [+5289 символів]</t>
+          <t>Аніша Сіркар і Сруті Шанкар
+(Reuters) - Основні фондові індекси Уолл-стріт різко впали, і S&amp;P 500 був на шляху до підтвердження ведмежого ринку в понеділок через побоювання, що Федеральний резерв … [+3066 символів]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">У вівторок вдень у Монктоні приземлився рейс із 170 особами, які рятувалися від зруйнованої війною України. </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t xml:space="preserve">S&amp;P 500 набирає обертів, щоб підтвердити хвилювання ведмежого ринку щодо рецесії </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Reuters</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CBC News</t>
+          <t>Investing.com</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.cbc.ca/news/canada/new-brunswick/new-brunswick-ukrainian-immigrants-1.6480065</t>
+          <t>https://www.investing.com/news/economy/nasdaq-futures-tumble-3-on-aggressive-rate-hike-bets-2836335</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://i.cbc.ca/1.6480601.1654631032!/fileImage/httpImage/image.jpg_gen/derivatives/16x9_620/ukid.jpg</t>
+          <t>https://i-invdn-com.investing.com/news/Microsoft_800x533_L_1643707550.jpg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2022-06-07T21:41:09Z</t>
+          <t>2022-06-13T16:52:00Z</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Україна</t>
+          <t>ЄС</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Супутникові знімки показують пошкодження російської артилерії, 40-метровий кратер в Україні - NDTV°</t>
+          <t>Космічний телескоп помітив несподівані зірки - CNN°</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Супутникові знімки, які показують руйнування будівель у Рубіжному (висока розді</t>
+          <t>(CNN) Дивні та несподівані зіркетруси, подібні до цунамі – рухи на зіркових корах, подібні до землетрусів, які ми відчуваємо на нашій планеті, – були виявлені космічним об’єктом Gaia Європейського космічного агентства… [+4290 символів]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оскільки на східному Донбасі України триває запеклий бій, останні супутникові знімки показують масштаби руйнувань, спричинених безперервною та невпинною російською артилерією. </t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t xml:space="preserve">Космічна обсерваторія Gaia Європейського космічного агентства виявила дивні та несподівані зоряні поштовхи, подібні до цунамі — рухи на зіркових корах, подібні до землетрусів, які ми відчуваємо на нашій планеті. </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Кеті Хант, CNN</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NDTV News</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.ndtv.com/world-news/satellite-images-show-russian-artillery-damage-40-metre-crater-in-ukraine-3047508</t>
+          <t>https://www.cnn.com/2022/06/13/world/gaia-milky-way-galaxy-map-release-scn/index.html</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://c.ndtvimg.com/2022-06/8f2bfd5g_b4maxar_625x300_08_June_22.jpg</t>
+          <t>https://cdn.cnn.com/cnnnext/dam/assets/220613121651-02-gaia-milky-way-super-tease.jpg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2022-06-07T20:44:10Z</t>
+          <t>2022-06-13T16:29:00Z</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Україна</t>
+          <t>ЄС</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Чи згодні ви з нашою командою Ірландії протистояти Україні? - The42°</t>
+          <t>Нове правило зарядного пристрою USB-C показує, як регулятори ЄС приймають рішення для всього світу - The Conversation°</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Каоімхін Келлехер: Оскільки Гевін Базуну виключено, Келлехер, здається, є явним другим вибором для Кенніса, незважаючи на чудовий сезон Марка Треверса з Борнмутом.
-Шейн Даффі: Не зробив багато поганого... [+4293 символи]</t>
+          <t>Ви коли-небудь позичали зарядний пристрій у друзів, щоб виявити, що він несумісний з вашим телефоном? Або задалися питанням, що робити з купою кабелів, які ви накопичили від кожного пристрою, який ви коли-небудь купували?
+Такий… [+5912 символів]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стівен Кенні збирається внести деякі зміни після невтішної поразки у Вірменії. </t>
+          <t xml:space="preserve">Правила ЄС часто мають значний вплив за межі його кордонів. Новий стандарт зарядки USB-C є чудовим прикладом. </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Пол Феннессі</t>
+          <t>Рено Фукар</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>The42</t>
+          <t>The Conversation Africa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.the42.ie/do-you-agree-with-our-ireland-team-to-face-ukraine-5784642-Jun2022/</t>
+          <t>https://theconversation.com/new-usb-c-charger-rule-shows-how-eu-regulators-make-decisions-for-the-world-184763</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://img2.thejournal.ie/article/5784642/river/?height=400&amp;version=5784696</t>
+          <t>https://images.theconversation.com/files/468390/original/file-20220613-41411-8jbhzi.jpg?ixlib=rb-1.1.0&amp;rect=0%2C226%2C5023%2C2511&amp;q=45&amp;auto=format&amp;w=1356&amp;h=668&amp;fit=crop</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2022-06-07T20:28:00Z</t>
+          <t>2022-06-13T15:03:35Z</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Україна</t>
+          <t>ЄС</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Російське космічне аге</t>
+          <t>Озброєні люди викрадають англіканського єпископа Квара, дружину, водія в Ойо - TheCable°</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Російське космічне агентство оголосило про намір в односторонньому порядку захопити контроль над німецьким телескопом, встановленим на російському космічному кораблі. Це жахлива, безвідповідальна ідея, оскільки навіть російські вчені… [+4216 символів]</t>
+          <t>Бойовики викрали Олувасона Адерогбу, англіканського єпископа єпархії Джебба, Квара, його дружину та водія вздовж нової швидкісної дороги Ойо/Огбомосо, штат Ойо.
+Вважалося, що інцидент стався біля… [+1910 символів]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Телескоп eROSITA є частиною спільного російсько-німецького проекту зі створення карт Всесвіту, але Німеччина призупинила місію після вторгнення Росії в Україну. </t>
+          <t xml:space="preserve">Збройні люди викрали Олувасона Адерогбу, англіканського єпископа єпархії Джебба, Квару, його дружину та водія, разом з... </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Георгій Дворський</t>
+          <t>Айодель Олувафемі</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gizmodo.com</t>
+          <t>Thecable.ng</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://gizmodo.com/russia-roscosmos-erosita-1849029588</t>
+          <t>https://www.thecable.ng/gunmen-kidnap-kwara-anglican-bishop-wife-driver-in-oyo</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://i.kinja-img.com/gawker-media/image/upload/c_fill,f_auto,fl_progressive,g_center,h_675,pg_1,q_80,w_1200/83ee3f0f039d6298d8a90baf08a8f98e.png</t>
+          <t>https://f5p3e9e4.stackpathcdn.com/wp-content/uploads/2022/04/Gunmen1-e1649090068208.jpg</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2022-06-07T20:05:00Z</t>
+          <t>2022-06-13T13:06:00Z</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Україна</t>
+          <t>ЄС</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Зеленський заявив, що воюватиме за всю територію в умовах запеклої битви на сході - Reuters.com°</t>
+          <t>Команда Sonic змушена була відмовитися від свого першого проходу на Sonic Frontiers - Eurogamer.net°</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>КИЇВ/ДРУЖКІВКА, Україна, 7 червня (Рейтер) - Україна боротиметься за відновлення всієї своєї території, окупованої російськими військами, заявив президент Володимир Зеленський у вівторок, поки його війська намагалися утримати… [+5956 символів]</t>
+          <t>Це була непроста пара тижнів для Sonic Frontiers. Вперше опублікований понад рік тому з найкоротшим з трейлерів, які пропонують уявлення про абсолютно новий стиль «відкритої зони» для серіалу, ігровий процес r… [+7757 символів]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Україна боротиметься за відновлення всієї своєї території, окупованої російськими військами, заявив у вівторок президент Володимир Зеленський, коли його війська намагалися утриматися у кровопролитних вуличних боях у місті Сєвєродонецьк. </t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t xml:space="preserve">Це була непроста пара тижнів для Sonic Frontiers. Вперше опублікований понад рік тому з найкоротшим з трейлерів, які… </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Мартін Робінсон</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Eurogamer.net</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.reuters.com/business/aerospace-defense/fierce-street-fighting-ukraines-sievierodonetsk-pivotal-battle-donbas-2022-06-07/</t>
+          <t>https://www.eurogamer.net/sonic-team-had-to-scrap-its-first-pass-at-sonic-frontiers</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.reuters.com/resizer/sXTJiaYl_-S10FTJk6s7dC2kWRc=/1200x628/smart/filters:quality(80)/cloudfront-us-east-2.images.arcpublishing.com/reuters/TDWTIBC7FZKIDHH7X3TFGCJIZA.jpg</t>
+          <t>https://assets.reedpopcdn.com/sonic-frontiers_tPDEvos.jpg/BROK/thumbnail/1600x900/format/jpg/quality/80/sonic-frontiers_tPDEvos.jpg</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2022-06-07T18:54:00Z</t>
+          <t>2022-06-13T13:00:00Z</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Україна</t>
+          <t>ЄС</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Російсько-українська війна: США виграли справу щодо захоплення російської суперяхти на Фіджі, відпливають - New Zealand Herald°</t>
+          <t>Найкращі шанси демократів у Сенаті збільшити більшість можуть мати двох нетрадиційних лейтенантів - POLITICO°</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Капітан човна Емосі Давай дивиться на суперяхту Amadea, що пришвартована на пристані Квінс у Лаутоці, Фіджі, 13 квітня. 5 травня п'ятеро федеральних агентів США сіли на судно. Фото / APСполучені Штати виграли … [+4692 символи]</t>
+          <t>Обидва лейтенанти-губернатори зараз змагаються за місце в Сенаті у своїх штатах Вісконсин і Пенсільванія, що необхідно для того, щоб демократи прагнули зберегти свою більшість. Сенатори… [+7848 символів]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amadea стала мішенню спеціальної групи США, створеної для захоплення активів російських олігархів. </t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Нік Перрі</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Джон Феттерман і Мандела Барнс перевіряють, чи обиратимуть штати на полі бою лібералів до Сенату. На цьому схожість двох «високих і лисих» чоловіків не закінчується. </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>New Zealand Herald</t>
+          <t>Politico</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.nzherald.co.nz/world/russia-ukraine-war-us-wins-case-to-seize-russian-superyacht-in-fiji-sails-away/VX3K6LUJZKVCCRKHZKJB3LX5FA/</t>
+          <t>https://www.politico.com/news/2022/06/13/a-tale-of-two-lieutenant-governors-trying-to-expand-the-dem-majority-00038849</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nzherald.co.nz/resizer/FNSqkLL5Wu_i85kDlRHQi5Q-vNY=/1200x675/filters:quality(70)/cloudfront-ap-southeast-2.images.arcpublishing.com/nzme/S22XTQWUYM2EUU5K5JOON3H22Q.jpg</t>
+          <t>https://static.politico.com/0d/97/d7780ebc4d15a2e29874c960397f/cw-0504-cusick-politics-1160-01.jpg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2022-06-07T17:59:41Z</t>
+          <t>2022-06-13T08:30:00Z</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Україна</t>
+          <t>ЄС</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Світовий банк прогнозує зростання світової економіки цього року на 2,9% — приблизно вдвічі більше, ніж у 2021 році - CBC News°</t>
+          <t>Сон Хен Мін — НЕ світового рівня, стверджуючи, що його БАТЬКО, оскільки він наполягає, що зірка «Шпор» повинна «працювати наполегливіше» - Daily Mail°</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Світовий банк різко погіршив свій прогноз щодо світової економіки, вказуючи на війну Росії проти України, перспективу широкого дефіциту продовольства та занепокоєння щодо потенційного повернення... [+3034 символу]</t>
+          <t>Сон Ун Чжон, батько Сон Хен Мін, сказав, що зірка Тоттенхема має «попрацювати більше» і бути «на 10 відсотків кращим», щоб стати гравцем «світового класу».
+Син був спільним переможцем минулого сезону… [+2043 символи]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Світовий банк різко погіршив свої прогнози щодо світової економіки, вказуючи на війну Росії проти України, перспективу широкого дефіциту продовольства та занепокоєння з приводу потенційного повернення «стагфляції» — токсичної суміші високої інфляції та повільного… </t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t xml:space="preserve">Батько Сина ще не впевнений, що він здобув титул гравця "світового класу", і каже, що 29-річний нападник спочатку повинен "відіграти важливу роль в одному з провідних клубів світу". </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Шарлотта Дейлі</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CBC News</t>
+          <t>Daily Mail</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.cbc.ca/news/business/world-bank-economic-forecast-1.6480052</t>
+          <t>https://www.dailymail.co.uk/sport/football/article-10910625/Son-Heung-min-ISNT-world-class-claims-FATHER-insists-Spurs-star-work-harder.html</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://i.cbc.ca/1.6480069.1654611973!/fileImage/httpImage/image.jpg_gen/derivatives/16x9_620/david-malpass-world-bank.jpg</t>
+          <t>https://i.dailymail.co.uk/1s/2022/06/13/09/59003299-0-image-a-23_1655107643277.jpg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2022-06-07T15:06:16Z</t>
+          <t>2022-06-13T07:55:14Z</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Україна</t>
+          <t>ЄС</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Світовий банк попереджає, що багато країн прямують до рецесії - The Irish Times°</t>
+          <t>Око Сахари з'являється на Марсі, колись міг винести воду на поверхню - India Today°</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Багатьом країнам буде важко уникнути рецесії в найближчі місяці, оскільки вторгнення Росії в Україну, блокування в Китаї та поточні проблеми з ланцюгом поставок порушують діяльність, торгівлю та розміщення… [+3621 символів]</t>
+          <t>Око Сахари, геологічного утворення, яке вперше сфотографували астронавти Близнюків у 1960-х роках, протягом десятиліть було загадковим явищем. Подібну структуру тепер бачили на Марсі, з… [+2138 символів]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">У Вашингтоні стверджують, що вторгнення Росії в Україну посилило збитки від пандемії та підвищило ризик стагфляції в стилі 1970-х років </t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Еойн Берк-Кеннеді</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Марс-експрес Європейського космічного агентства зняв унікальний кратер на Марсі, схожий на око Сахари, ширина якого становить 30 кілометрів. </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>The Irish Times</t>
+          <t>India Today</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.irishtimes.com/business/economy/2022/06/07/most-countries-headed-for-recession-world-bank-warns/</t>
+          <t>https://www.indiatoday.in/science/story/eye-of-sahara-appears-on-mars-could-have-once-carried-water-to-surface-1961699-2022-06-13</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.irishtimes.com/resizer/cD1_85Bf0v1MpHOVDFY3hBpSIWQ=/1200x630/filters:format(jpg):quality(70)/cloudfront-eu-central-1.images.arcpublishing.com/irishtimes/WQFAOLFQABGWTEGEKWZWASKZ4Y.jpg</t>
+          <t>https://akm-img-a-in.tosshub.com/indiatoday/images/story/202206/Eye_of_sahars-647x363.jpeg?Drj8Twx4mJWdCWLQ5vHJWPk0ZLOo55tp</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2022-06-07T14:46:29Z</t>
+          <t>2022-06-13T05:47:51Z</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Україна</t>
+          <t>ЄС</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Останні новини російсько-української війни: прямі оновлення - The Washington Post°</t>
+          <t>Фірма дотримується вуглецевої нейтральності, інвестує в сонячну енергію - Guardian Nigeria°</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Понад 100 днів після початку війни українські та російські війська залишаються в запеклих боях за Сєвєродонецьк, найбільше місто Луганської області, де Київ все ще зберігає певний контроль. Українські військові… [+2886 символів]</t>
+          <t>Нігерійська компанія, що випускає споживчі товари, British American Tobacco (BAT) Nigeria, підтвердила свою прихильність до вирішення проблем зміни клімату, екологічного управління, забезпечуючи при цьому надійне корпоративне управління… [+2433 символи]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Зеленський сказав, що Україна може повернути Сєвєродонецьк, але умови для бійців, які захищають ключове місто, погіршилися. </t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Амай Ченг, Ендрю Чон, Рейчел Паннетт, Дженніфер Хассан, Адела Сулейман</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Нігерійська компанія, що випускає споживчі товари, British American Tobacco (BAT) Nigeria, підтвердила свою прихильність вирішенню проблем зміни клімату та екологічного управління, забезпечуючи при цьому надійне корпоративне управління у своїй діяльності. </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>The Washington Post</t>
+          <t>Guardian Nigeria</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.washingtonpost.com/world/2022/06/07/russia-ukraine-war-putin-news-live-updates/</t>
+          <t>https://guardian.ng/property/firm-commits-to-carbon-neutral-invests-in-solar-energy/</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.washingtonpost.com/wp-apps/imrs.php?src=https://arc-anglerfish-washpost-prod-washpost.s3.amazonaws.com/public/LY4DDGXFZYI6ZJBCCG53SHNTBM.jpg&amp;w=1440</t>
+          <t>https://guardian.ng/wp-content/uploads/2016/05/solar-energy.jpg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2022-06-07T09:00:00Z</t>
+          <t>2022-06-13T03:43:00Z</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Україна</t>
+          <t>ЄС</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Як вивезти з України 20 млн тонн зерна? - Опікун°</t>
+          <t>На крок ближче до того, щоб зрушити речі з нашими думками - огляд Євразії°</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>У висотних багатоповерхових складських приміщеннях на набережній Одеського чорноморського порту на українському узбережжі цокає годинник.
-Одна величезна металева конструкція містить чверть мільйона тонн… [+7619 символів]</t>
+          <t>Метаматеріали привернули велику увагу багатьох галузей завдяки своїм надзвичайним фізичним властивостям. Він надав дослідникам нову концепцію розробки штучних матеріалів, бр… [+2804 символу]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Війна ставить дипломатичні та матеріально-технічні проблеми, оскільки заповнюються силоси п’ятого за величиною експортера пшениці в світі </t>
+          <t xml:space="preserve">Метаматеріали привернули велику увагу багатьох галузей завдяки своїм надзвичайним фізичним властивостям. Він надав дослідникам нову концепцію розробки штучних матеріалів, б… </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Джоанна Партрідж</t>
+          <t>Огляд Євразії</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>The Guardian</t>
+          <t>Eurasia Review</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://amp.theguardian.com/world/2022/jun/07/how-do-you-get-20m-tonnes-of-grain-out-of-ukraine</t>
+          <t>https://www.eurasiareview.com/13062022-one-step-closer-to-moving-things-with-our-thoughts/</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://i.guim.co.uk/img/media/dadd41e7e4224914e88f3639b9478cfa18692646/35_19_3430_2058/master/3430.jpg?width=1200&amp;height=630&amp;quality=85&amp;auto=format&amp;fit=crop&amp;overlay-align=bottom%2Cleft&amp;overlay-width=100p&amp;overlay-base64=L2ltZy9zdGF0aWMvb3ZlcmxheXMvdGctZGVmYXVsdC5wbmc&amp;enable=upscale&amp;s=cc6cf40dc1d57f3aa34e58edf3776afe</t>
+          <t>https://i0.wp.com/www.eurasiareview.com/wp-content/uploads/2022/06/b-116.png?fit=800%2C450&amp;ssl=1</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2022-06-07T05:00:00Z</t>
+          <t>2022-06-12T22:17:05Z</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Україна</t>
+          <t>ЄС</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>На війні в Україні загинув ще один російський генерал | Світ - The Times°</t>
+          <t>ET TU, CJ OFFICE?: Tenderstorm обрушився на офіс Zondo через контракт Thomson Reuters напередодні остаточного звіту State Capture - Daily Maverick°</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ще один російський генерал був убитий в Україні під час останньої невдачі сил вторгнення.
-Під час бойових дій на Донбасі загинув генерал-майор Роман Кутузов. Генерал повів своїх солдатів у атаку… [+603 символи]</t>
+          <t>Thomson Reuters призупинив контракт з трьома старшими співробітниками Офісу головного судді (OCJ), які пішли у відставку 31 травня і почали працювати 1 червня як акціонери багатомільйонного… [+5194 символу]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ще один російський генерал був убитий в Україні під час останньої невдачі сил вторгнення. Під час бойових дій на Донбасі загинув генерал-майор Роман Кутузов. “ </t>
+          <t xml:space="preserve">За тиждень, коли він має опублікувати останнє видання звіту Державної комісії з захоплення, троє найвищих співробітників офісу головного судді Раймонда Зондо, здавалося б, за одну ніч стали мільйонерами за контрактом на управління судом Thomson Reuters, який... </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Джуліан О'Шонессі</t>
+          <t>Ferial Haffajee</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>The Times</t>
+          <t>Daily Maverick</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.thetimes.co.uk/article/another-russian-general-dies-in-ukraine-war-w2353ds66</t>
+          <t>https://www.dailymaverick.co.za/article/2022-06-12-tenderstorm-hits-zondo-office-over-thomson-reuters-contract-on-eve-of-state-capture-final-report/</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.thetimes.co.uk/imageserver/image/%2Fmethode%2Ftimes%2Fprod%2Fweb%2Fbin%2F10a6478c-e579-11ec-9b02-3f136f233710.jpg?crop=1287%2C724%2C35%2C36&amp;resize=1200</t>
+          <t>https://www.dailymaverick.co.za/wp-content/uploads/2022/06/0000249310.jpg?w=1280</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2022-06-06T16:00:00Z</t>
+          <t>2022-06-12T21:59:23Z</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Україна</t>
+          <t>ЄС</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Українські та російські війська вулицю за вулицею б'ються за контроль над містом Сєвєродонецьк - The Globe and Mail°</t>
+          <t>KARA возз'єднується на 15-ту річницю + показує любов до Гу Хари - soompi°</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Члени загону іноземних добровольців, який воює в українській армії, займають позиції у Сєвєродонецьку, Україна, 2 червня. СЕРГІЙ НУЖНЕНКО/Reuters
-Вуличні бої між українськими та російськими… [+4470 символів]</t>
+          <t>Учасники KARA знову зібралися, щоб відсвяткувати своє 15-річчя!
+11 червня KARA відзначили свій 15-й щорічний День Камілії, повідомивши, що вони нещодавно возз’єдналися для пам’ятної фотографії… [+1235 символів]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Російські сили мали чисельну перевагу, але Україна мала «всі шанси» дати відсіч, заявив президент Володимир Зеленський після того, як регіональний чиновник припустив, що Київ втратив позиції </t>
+          <t xml:space="preserve">Учасники KARA знову зібралися, щоб відсвяткувати своє 15-річчя! 11 червня KARA відзначили свій 15-й щорічний День Камілії, повідомивши, що нещодавно вони возз’єдналися для фотосесії на згадку. Пак Гюрі, Хан Син Ён, Ніколь, Кан Джі Ён, … </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Наталія Зінець, Павло Політюк</t>
+          <t>затемнення01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>The Globe And Mail</t>
+          <t>soompi</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.theglobeandmail.com/world/article-uk-boosts-ukraine-support-with-high-tech-missile-system-2/</t>
+          <t>https://www.soompi.com/article/1530513wpp/kara-reunites-for-15th-anniversary-shows-love-for-goo-hara</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.theglobeandmail.com/resizer/ZgyGOvgR4W6AJewxet4kylMzir8=/1200x822/filters:quality(80)/cloudfront-us-east-1.images.arcpublishing.com/tgam/IES6NDYXGBNDRGSPJRNQ2RQHXQ.JPG</t>
+          <t>https://6.viki.io/image/2e83e8048f054233bc98cf82c30a75bf/dummy.jpeg?s=900x600&amp;e=t</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2022-06-06T11:50:49Z</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Україна</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Уельс 1:0 Україна | WCQ 22 Плей-оф | Astro SuperSport - Стадіон Astro°</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Зареєструйтеся на абсолютно новий досвід Astro сьогодні: https://shop.astro.com.my/sports-pack/details📢Отримайте 6 місяців The Athletic БЕЗКОШТОВНО!: https://rewards.astro.... </t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>YouTube</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=6I029mnyVy0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>https://i.ytimg.com/vi/6I029mnyVy0/maxresdefault.jpg</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2022-06-05T22:06:22Z</t>
+          <t>2022-06-11T22:25:27Z</t>
         </is>
       </c>
     </row>
